--- a/inst/formr/bvq-v1.0.0/bvq_06_words_catalan.xlsx
+++ b/inst/formr/bvq-v1.0.0/bvq_06_words_catalan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u155880\Documents\bvq\inst\formr\1.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\bvq\inst\formr\bvq-v1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBBE49-5CCB-4599-B5CD-49C60F9D7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4805" uniqueCount="1720">
   <si>
     <t>optional</t>
   </si>
@@ -5191,11 +5192,17 @@
   <si>
     <t>mc_button word_choices</t>
   </si>
+  <si>
+    <t>cat_vaixell</t>
+  </si>
+  <si>
+    <t>vaixell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -5236,7 +5243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5540,21 +5547,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I842"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A840" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I844" sqref="I844"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="243" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="265.2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5600,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5620,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5694,7 +5701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1717</v>
       </c>
@@ -5720,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1717</v>
       </c>
@@ -5746,7 +5753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1717</v>
       </c>
@@ -5772,7 +5779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1717</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1717</v>
       </c>
@@ -5824,7 +5831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1717</v>
       </c>
@@ -5850,7 +5857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1717</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1717</v>
       </c>
@@ -5902,7 +5909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1717</v>
       </c>
@@ -5928,7 +5935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1717</v>
       </c>
@@ -5954,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1717</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1717</v>
       </c>
@@ -6006,7 +6013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1717</v>
       </c>
@@ -6032,7 +6039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1717</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1717</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1717</v>
       </c>
@@ -6110,7 +6117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1717</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1717</v>
       </c>
@@ -6162,7 +6169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1717</v>
       </c>
@@ -6188,7 +6195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1717</v>
       </c>
@@ -6214,7 +6221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1717</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1717</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1717</v>
       </c>
@@ -6292,7 +6299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1717</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1717</v>
       </c>
@@ -6344,7 +6351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1717</v>
       </c>
@@ -6370,7 +6377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1717</v>
       </c>
@@ -6396,7 +6403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1717</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1717</v>
       </c>
@@ -6448,7 +6455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1717</v>
       </c>
@@ -6474,7 +6481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1717</v>
       </c>
@@ -6500,7 +6507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1717</v>
       </c>
@@ -6526,7 +6533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1717</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1717</v>
       </c>
@@ -6578,7 +6585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1717</v>
       </c>
@@ -6604,7 +6611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1717</v>
       </c>
@@ -6630,7 +6637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1717</v>
       </c>
@@ -6656,7 +6663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1717</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1717</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1717</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1717</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1717</v>
       </c>
@@ -6786,7 +6793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1717</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1717</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1717</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1717</v>
       </c>
@@ -6890,7 +6897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1717</v>
       </c>
@@ -6916,7 +6923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1717</v>
       </c>
@@ -6942,7 +6949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1717</v>
       </c>
@@ -6968,7 +6975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1717</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1717</v>
       </c>
@@ -7020,7 +7027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1717</v>
       </c>
@@ -7046,7 +7053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1717</v>
       </c>
@@ -7072,7 +7079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1717</v>
       </c>
@@ -7098,7 +7105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1717</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1717</v>
       </c>
@@ -7150,7 +7157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1717</v>
       </c>
@@ -7176,7 +7183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1717</v>
       </c>
@@ -7202,7 +7209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1717</v>
       </c>
@@ -7228,7 +7235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1717</v>
       </c>
@@ -7254,7 +7261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1717</v>
       </c>
@@ -7280,7 +7287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1717</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1717</v>
       </c>
@@ -7332,7 +7339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1717</v>
       </c>
@@ -7358,7 +7365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1717</v>
       </c>
@@ -7384,7 +7391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1717</v>
       </c>
@@ -7410,7 +7417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1717</v>
       </c>
@@ -7436,7 +7443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1717</v>
       </c>
@@ -7462,7 +7469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1717</v>
       </c>
@@ -7488,7 +7495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1717</v>
       </c>
@@ -7514,7 +7521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1717</v>
       </c>
@@ -7540,7 +7547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1717</v>
       </c>
@@ -7566,7 +7573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1717</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1717</v>
       </c>
@@ -7618,7 +7625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1717</v>
       </c>
@@ -7644,7 +7651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1717</v>
       </c>
@@ -7670,7 +7677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1717</v>
       </c>
@@ -7696,7 +7703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1717</v>
       </c>
@@ -7722,7 +7729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1717</v>
       </c>
@@ -7748,7 +7755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1717</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1717</v>
       </c>
@@ -7800,7 +7807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1717</v>
       </c>
@@ -7826,7 +7833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1717</v>
       </c>
@@ -7852,7 +7859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1717</v>
       </c>
@@ -7878,7 +7885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1717</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1717</v>
       </c>
@@ -7930,7 +7937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1717</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1717</v>
       </c>
@@ -7982,7 +7989,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1717</v>
       </c>
@@ -8008,7 +8015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1717</v>
       </c>
@@ -8034,7 +8041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1717</v>
       </c>
@@ -8060,7 +8067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1717</v>
       </c>
@@ -8086,7 +8093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1717</v>
       </c>
@@ -8112,7 +8119,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1717</v>
       </c>
@@ -8138,7 +8145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1717</v>
       </c>
@@ -8164,7 +8171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1717</v>
       </c>
@@ -8190,7 +8197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1717</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1717</v>
       </c>
@@ -8242,7 +8249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1717</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1717</v>
       </c>
@@ -8294,7 +8301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1717</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1717</v>
       </c>
@@ -8346,7 +8353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1717</v>
       </c>
@@ -8372,7 +8379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1717</v>
       </c>
@@ -8398,7 +8405,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1717</v>
       </c>
@@ -8424,7 +8431,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1717</v>
       </c>
@@ -8450,7 +8457,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1717</v>
       </c>
@@ -8476,7 +8483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1717</v>
       </c>
@@ -8502,7 +8509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1717</v>
       </c>
@@ -8528,7 +8535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1717</v>
       </c>
@@ -8554,7 +8561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -8571,7 +8578,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1717</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1717</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1717</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1717</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1717</v>
       </c>
@@ -8706,7 +8713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1717</v>
       </c>
@@ -8729,7 +8736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1717</v>
       </c>
@@ -8752,7 +8759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1717</v>
       </c>
@@ -8775,7 +8782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1717</v>
       </c>
@@ -8798,7 +8805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1717</v>
       </c>
@@ -8821,7 +8828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -8858,7 +8865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1717</v>
       </c>
@@ -8884,7 +8891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1717</v>
       </c>
@@ -8910,7 +8917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1717</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1717</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1717</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1717</v>
       </c>
@@ -9014,7 +9021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1717</v>
       </c>
@@ -9040,7 +9047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1717</v>
       </c>
@@ -9066,7 +9073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1717</v>
       </c>
@@ -9092,7 +9099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1717</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1717</v>
       </c>
@@ -9144,7 +9151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1717</v>
       </c>
@@ -9170,7 +9177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1717</v>
       </c>
@@ -9196,7 +9203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1717</v>
       </c>
@@ -9222,7 +9229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1717</v>
       </c>
@@ -9248,7 +9255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1717</v>
       </c>
@@ -9274,7 +9281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1717</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1717</v>
       </c>
@@ -9326,7 +9333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1717</v>
       </c>
@@ -9352,7 +9359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1717</v>
       </c>
@@ -9378,7 +9385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1717</v>
       </c>
@@ -9404,7 +9411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1717</v>
       </c>
@@ -9430,7 +9437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1717</v>
       </c>
@@ -9456,7 +9463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -9493,7 +9500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1717</v>
       </c>
@@ -9516,7 +9523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1717</v>
       </c>
@@ -9539,7 +9546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1717</v>
       </c>
@@ -9565,7 +9572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1717</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1717</v>
       </c>
@@ -9617,7 +9624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1717</v>
       </c>
@@ -9643,7 +9650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1717</v>
       </c>
@@ -9669,7 +9676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1717</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1717</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1717</v>
       </c>
@@ -9744,7 +9751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1717</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1717</v>
       </c>
@@ -9796,7 +9803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1717</v>
       </c>
@@ -9819,7 +9826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1717</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1717</v>
       </c>
@@ -9871,7 +9878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1717</v>
       </c>
@@ -9894,7 +9901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1717</v>
       </c>
@@ -9920,7 +9927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1717</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1717</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1717</v>
       </c>
@@ -9995,7 +10002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1717</v>
       </c>
@@ -10021,7 +10028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1717</v>
       </c>
@@ -10044,7 +10051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1717</v>
       </c>
@@ -10070,7 +10077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1717</v>
       </c>
@@ -10093,7 +10100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1717</v>
       </c>
@@ -10116,7 +10123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1717</v>
       </c>
@@ -10142,7 +10149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1717</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1717</v>
       </c>
@@ -10188,7 +10195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1717</v>
       </c>
@@ -10211,7 +10218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1717</v>
       </c>
@@ -10237,7 +10244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1717</v>
       </c>
@@ -10263,7 +10270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1717</v>
       </c>
@@ -10286,7 +10293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1717</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1717</v>
       </c>
@@ -10335,7 +10342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1717</v>
       </c>
@@ -10361,7 +10368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1717</v>
       </c>
@@ -10384,7 +10391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1717</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1717</v>
       </c>
@@ -10433,7 +10440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1717</v>
       </c>
@@ -10459,7 +10466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1717</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1717</v>
       </c>
@@ -10508,7 +10515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1717</v>
       </c>
@@ -10531,7 +10538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1717</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1717</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1717</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1717</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1717</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1717</v>
       </c>
@@ -10678,7 +10685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1717</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1717</v>
       </c>
@@ -10730,7 +10737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1717</v>
       </c>
@@ -10753,7 +10760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1717</v>
       </c>
@@ -10779,7 +10786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1717</v>
       </c>
@@ -10805,7 +10812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1717</v>
       </c>
@@ -10831,7 +10838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1717</v>
       </c>
@@ -10857,7 +10864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1717</v>
       </c>
@@ -10883,7 +10890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1717</v>
       </c>
@@ -10906,7 +10913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1717</v>
       </c>
@@ -10932,7 +10939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1717</v>
       </c>
@@ -10955,7 +10962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1717</v>
       </c>
@@ -10981,7 +10988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1717</v>
       </c>
@@ -11004,7 +11011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -11021,7 +11028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="163.19999999999999" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -11041,7 +11048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1717</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1717</v>
       </c>
@@ -11087,7 +11094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1717</v>
       </c>
@@ -11110,7 +11117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1717</v>
       </c>
@@ -11133,7 +11140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1717</v>
       </c>
@@ -11156,7 +11163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -11173,7 +11180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -11193,7 +11200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1717</v>
       </c>
@@ -11219,7 +11226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1717</v>
       </c>
@@ -11245,7 +11252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1717</v>
       </c>
@@ -11268,7 +11275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1717</v>
       </c>
@@ -11294,7 +11301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1717</v>
       </c>
@@ -11317,7 +11324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1717</v>
       </c>
@@ -11343,7 +11350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1717</v>
       </c>
@@ -11369,7 +11376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1717</v>
       </c>
@@ -11395,7 +11402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1717</v>
       </c>
@@ -11421,7 +11428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1717</v>
       </c>
@@ -11447,7 +11454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1717</v>
       </c>
@@ -11473,7 +11480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1717</v>
       </c>
@@ -11499,7 +11506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1717</v>
       </c>
@@ -11525,7 +11532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1717</v>
       </c>
@@ -11551,7 +11558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1717</v>
       </c>
@@ -11577,7 +11584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1717</v>
       </c>
@@ -11603,7 +11610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1717</v>
       </c>
@@ -11626,7 +11633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1717</v>
       </c>
@@ -11649,7 +11656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1717</v>
       </c>
@@ -11675,7 +11682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1717</v>
       </c>
@@ -11698,7 +11705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1717</v>
       </c>
@@ -11721,7 +11728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1717</v>
       </c>
@@ -11747,7 +11754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1717</v>
       </c>
@@ -11770,7 +11777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1717</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1717</v>
       </c>
@@ -11819,7 +11826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1717</v>
       </c>
@@ -11842,7 +11849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -11879,7 +11886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1717</v>
       </c>
@@ -11905,7 +11912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1717</v>
       </c>
@@ -11928,7 +11935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1717</v>
       </c>
@@ -11954,7 +11961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1717</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1717</v>
       </c>
@@ -12003,7 +12010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1717</v>
       </c>
@@ -12029,7 +12036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1717</v>
       </c>
@@ -12055,7 +12062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1717</v>
       </c>
@@ -12078,7 +12085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1717</v>
       </c>
@@ -12104,7 +12111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1717</v>
       </c>
@@ -12130,7 +12137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1717</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1717</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1717</v>
       </c>
@@ -12208,7 +12215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1717</v>
       </c>
@@ -12234,7 +12241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1717</v>
       </c>
@@ -12260,7 +12267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1717</v>
       </c>
@@ -12286,7 +12293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1717</v>
       </c>
@@ -12312,7 +12319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1717</v>
       </c>
@@ -12338,7 +12345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1717</v>
       </c>
@@ -12361,7 +12368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1717</v>
       </c>
@@ -12387,7 +12394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1717</v>
       </c>
@@ -12413,7 +12420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1717</v>
       </c>
@@ -12439,7 +12446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1717</v>
       </c>
@@ -12465,7 +12472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1717</v>
       </c>
@@ -12488,7 +12495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1717</v>
       </c>
@@ -12514,7 +12521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1717</v>
       </c>
@@ -12537,7 +12544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1717</v>
       </c>
@@ -12563,7 +12570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1717</v>
       </c>
@@ -12586,7 +12593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1717</v>
       </c>
@@ -12612,7 +12619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1717</v>
       </c>
@@ -12635,7 +12642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1717</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -12678,7 +12685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -12698,7 +12705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1717</v>
       </c>
@@ -12721,7 +12728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1717</v>
       </c>
@@ -12744,7 +12751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1717</v>
       </c>
@@ -12767,7 +12774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1717</v>
       </c>
@@ -12790,7 +12797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1717</v>
       </c>
@@ -12813,7 +12820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1717</v>
       </c>
@@ -12836,7 +12843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1717</v>
       </c>
@@ -12859,7 +12866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1717</v>
       </c>
@@ -12882,7 +12889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -12899,7 +12906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>19</v>
       </c>
@@ -12919,7 +12926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1717</v>
       </c>
@@ -12942,7 +12949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1717</v>
       </c>
@@ -12965,7 +12972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1717</v>
       </c>
@@ -12988,7 +12995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1717</v>
       </c>
@@ -13011,7 +13018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1717</v>
       </c>
@@ -13034,7 +13041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1717</v>
       </c>
@@ -13057,7 +13064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1717</v>
       </c>
@@ -13080,7 +13087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -13097,7 +13104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="162" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="163.19999999999999" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -13117,7 +13124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1717</v>
       </c>
@@ -13143,7 +13150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1717</v>
       </c>
@@ -13169,7 +13176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1717</v>
       </c>
@@ -13195,7 +13202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1717</v>
       </c>
@@ -13221,7 +13228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1717</v>
       </c>
@@ -13247,7 +13254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1717</v>
       </c>
@@ -13273,7 +13280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1717</v>
       </c>
@@ -13299,7 +13306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1717</v>
       </c>
@@ -13325,7 +13332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1717</v>
       </c>
@@ -13351,7 +13358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1717</v>
       </c>
@@ -13377,7 +13384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1717</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1717</v>
       </c>
@@ -13429,7 +13436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1717</v>
       </c>
@@ -13455,7 +13462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1717</v>
       </c>
@@ -13481,7 +13488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1717</v>
       </c>
@@ -13507,7 +13514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1717</v>
       </c>
@@ -13533,7 +13540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1717</v>
       </c>
@@ -13559,7 +13566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1717</v>
       </c>
@@ -13585,7 +13592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1717</v>
       </c>
@@ -13611,7 +13618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1717</v>
       </c>
@@ -13637,7 +13644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1717</v>
       </c>
@@ -13663,7 +13670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1717</v>
       </c>
@@ -13689,7 +13696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1717</v>
       </c>
@@ -13715,7 +13722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1717</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1717</v>
       </c>
@@ -13767,7 +13774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1717</v>
       </c>
@@ -13793,7 +13800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1717</v>
       </c>
@@ -13819,7 +13826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1717</v>
       </c>
@@ -13845,7 +13852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1717</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1717</v>
       </c>
@@ -13897,7 +13904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1717</v>
       </c>
@@ -13923,7 +13930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1717</v>
       </c>
@@ -13949,7 +13956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1717</v>
       </c>
@@ -13975,7 +13982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1717</v>
       </c>
@@ -14001,7 +14008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1717</v>
       </c>
@@ -14027,7 +14034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1717</v>
       </c>
@@ -14053,7 +14060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1717</v>
       </c>
@@ -14079,7 +14086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1717</v>
       </c>
@@ -14105,7 +14112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1717</v>
       </c>
@@ -14131,7 +14138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1717</v>
       </c>
@@ -14157,7 +14164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1717</v>
       </c>
@@ -14183,7 +14190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1717</v>
       </c>
@@ -14209,7 +14216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1717</v>
       </c>
@@ -14235,7 +14242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1717</v>
       </c>
@@ -14261,7 +14268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1717</v>
       </c>
@@ -14287,7 +14294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1717</v>
       </c>
@@ -14313,7 +14320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1717</v>
       </c>
@@ -14339,7 +14346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1717</v>
       </c>
@@ -14365,7 +14372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1717</v>
       </c>
@@ -14391,7 +14398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -14408,7 +14415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>19</v>
       </c>
@@ -14428,7 +14435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1717</v>
       </c>
@@ -14451,7 +14458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1717</v>
       </c>
@@ -14474,7 +14481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1717</v>
       </c>
@@ -14497,7 +14504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1717</v>
       </c>
@@ -14523,7 +14530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1717</v>
       </c>
@@ -14549,7 +14556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1717</v>
       </c>
@@ -14575,7 +14582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1717</v>
       </c>
@@ -14601,7 +14608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1717</v>
       </c>
@@ -14627,7 +14634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1717</v>
       </c>
@@ -14653,7 +14660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1717</v>
       </c>
@@ -14679,7 +14686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1717</v>
       </c>
@@ -14705,7 +14712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1717</v>
       </c>
@@ -14731,7 +14738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1717</v>
       </c>
@@ -14757,7 +14764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1717</v>
       </c>
@@ -14780,7 +14787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1717</v>
       </c>
@@ -14803,7 +14810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1717</v>
       </c>
@@ -14826,7 +14833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1717</v>
       </c>
@@ -14852,7 +14859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1717</v>
       </c>
@@ -14878,7 +14885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1717</v>
       </c>
@@ -14901,7 +14908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1717</v>
       </c>
@@ -14924,7 +14931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1717</v>
       </c>
@@ -14950,7 +14957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1717</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1717</v>
       </c>
@@ -14999,7 +15006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1717</v>
       </c>
@@ -15022,7 +15029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1717</v>
       </c>
@@ -15048,7 +15055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1717</v>
       </c>
@@ -15071,7 +15078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1717</v>
       </c>
@@ -15097,7 +15104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1717</v>
       </c>
@@ -15123,7 +15130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1717</v>
       </c>
@@ -15149,7 +15156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1717</v>
       </c>
@@ -15175,7 +15182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1717</v>
       </c>
@@ -15201,7 +15208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1717</v>
       </c>
@@ -15224,7 +15231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1717</v>
       </c>
@@ -15247,7 +15254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1717</v>
       </c>
@@ -15273,7 +15280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1717</v>
       </c>
@@ -15296,7 +15303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1717</v>
       </c>
@@ -15322,7 +15329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1717</v>
       </c>
@@ -15348,7 +15355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1717</v>
       </c>
@@ -15374,7 +15381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1717</v>
       </c>
@@ -15400,7 +15407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1717</v>
       </c>
@@ -15426,7 +15433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1717</v>
       </c>
@@ -15452,7 +15459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1717</v>
       </c>
@@ -15478,7 +15485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1717</v>
       </c>
@@ -15504,7 +15511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1717</v>
       </c>
@@ -15530,7 +15537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1717</v>
       </c>
@@ -15556,7 +15563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1717</v>
       </c>
@@ -15582,7 +15589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1717</v>
       </c>
@@ -15608,7 +15615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1717</v>
       </c>
@@ -15631,7 +15638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1717</v>
       </c>
@@ -15654,7 +15661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1717</v>
       </c>
@@ -15680,7 +15687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1717</v>
       </c>
@@ -15706,7 +15713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1717</v>
       </c>
@@ -15732,7 +15739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1717</v>
       </c>
@@ -15758,7 +15765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1717</v>
       </c>
@@ -15781,7 +15788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1717</v>
       </c>
@@ -15807,7 +15814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1717</v>
       </c>
@@ -15833,7 +15840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1717</v>
       </c>
@@ -15859,7 +15866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1717</v>
       </c>
@@ -15885,7 +15892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1717</v>
       </c>
@@ -15908,7 +15915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1717</v>
       </c>
@@ -15934,7 +15941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1717</v>
       </c>
@@ -15960,7 +15967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1717</v>
       </c>
@@ -15986,7 +15993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1717</v>
       </c>
@@ -16009,7 +16016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1717</v>
       </c>
@@ -16035,7 +16042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1717</v>
       </c>
@@ -16058,7 +16065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1717</v>
       </c>
@@ -16084,7 +16091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1717</v>
       </c>
@@ -16107,7 +16114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1717</v>
       </c>
@@ -16133,7 +16140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1717</v>
       </c>
@@ -16156,7 +16163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1717</v>
       </c>
@@ -16182,7 +16189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1717</v>
       </c>
@@ -16208,7 +16215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1717</v>
       </c>
@@ -16234,7 +16241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1717</v>
       </c>
@@ -16257,7 +16264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1717</v>
       </c>
@@ -16283,7 +16290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1717</v>
       </c>
@@ -16306,7 +16313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1717</v>
       </c>
@@ -16332,7 +16339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1717</v>
       </c>
@@ -16355,7 +16362,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1717</v>
       </c>
@@ -16381,7 +16388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1717</v>
       </c>
@@ -16407,7 +16414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1717</v>
       </c>
@@ -16433,7 +16440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1717</v>
       </c>
@@ -16459,7 +16466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1717</v>
       </c>
@@ -16485,7 +16492,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>17</v>
       </c>
@@ -16502,7 +16509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="162" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="163.19999999999999" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>19</v>
       </c>
@@ -16522,7 +16529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1717</v>
       </c>
@@ -16545,7 +16552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1717</v>
       </c>
@@ -16568,7 +16575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1717</v>
       </c>
@@ -16591,7 +16598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1717</v>
       </c>
@@ -16614,7 +16621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1717</v>
       </c>
@@ -16637,7 +16644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1717</v>
       </c>
@@ -16660,7 +16667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1717</v>
       </c>
@@ -16683,7 +16690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1717</v>
       </c>
@@ -16706,7 +16713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>17</v>
       </c>
@@ -16723,7 +16730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="163.19999999999999" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>19</v>
       </c>
@@ -16743,7 +16750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1717</v>
       </c>
@@ -16769,7 +16776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1717</v>
       </c>
@@ -16795,7 +16802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1717</v>
       </c>
@@ -16821,7 +16828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1717</v>
       </c>
@@ -16847,7 +16854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1717</v>
       </c>
@@ -16873,7 +16880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1717</v>
       </c>
@@ -16899,7 +16906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1717</v>
       </c>
@@ -16925,7 +16932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1717</v>
       </c>
@@ -16951,7 +16958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1717</v>
       </c>
@@ -16977,7 +16984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1717</v>
       </c>
@@ -17000,7 +17007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1717</v>
       </c>
@@ -17026,7 +17033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1717</v>
       </c>
@@ -17052,7 +17059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1717</v>
       </c>
@@ -17078,7 +17085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1717</v>
       </c>
@@ -17104,7 +17111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1717</v>
       </c>
@@ -17130,7 +17137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1717</v>
       </c>
@@ -17156,7 +17163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1717</v>
       </c>
@@ -17182,7 +17189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1717</v>
       </c>
@@ -17208,7 +17215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1717</v>
       </c>
@@ -17234,7 +17241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1717</v>
       </c>
@@ -17260,7 +17267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1717</v>
       </c>
@@ -17286,7 +17293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1717</v>
       </c>
@@ -17312,7 +17319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1717</v>
       </c>
@@ -17338,7 +17345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1717</v>
       </c>
@@ -17364,7 +17371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1717</v>
       </c>
@@ -17390,7 +17397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1717</v>
       </c>
@@ -17416,7 +17423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1717</v>
       </c>
@@ -17442,7 +17449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1717</v>
       </c>
@@ -17468,7 +17475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1717</v>
       </c>
@@ -17494,7 +17501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1717</v>
       </c>
@@ -17520,7 +17527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1717</v>
       </c>
@@ -17546,7 +17553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1717</v>
       </c>
@@ -17572,7 +17579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1717</v>
       </c>
@@ -17598,7 +17605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>17</v>
       </c>
@@ -17615,7 +17622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1717</v>
       </c>
@@ -17638,7 +17645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1717</v>
       </c>
@@ -17664,7 +17671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1717</v>
       </c>
@@ -17687,7 +17694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1717</v>
       </c>
@@ -17713,7 +17720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1717</v>
       </c>
@@ -17739,7 +17746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1717</v>
       </c>
@@ -17765,7 +17772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1717</v>
       </c>
@@ -17791,7 +17798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1717</v>
       </c>
@@ -17817,7 +17824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1717</v>
       </c>
@@ -17843,7 +17850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1717</v>
       </c>
@@ -17869,7 +17876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1717</v>
       </c>
@@ -17895,7 +17902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1717</v>
       </c>
@@ -17918,7 +17925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>1717</v>
       </c>
@@ -17944,7 +17951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>1717</v>
       </c>
@@ -17970,7 +17977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1717</v>
       </c>
@@ -17996,7 +18003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1717</v>
       </c>
@@ -18022,7 +18029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1717</v>
       </c>
@@ -18048,7 +18055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1717</v>
       </c>
@@ -18074,7 +18081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1717</v>
       </c>
@@ -18097,7 +18104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1717</v>
       </c>
@@ -18120,7 +18127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1717</v>
       </c>
@@ -18146,7 +18153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1717</v>
       </c>
@@ -18172,7 +18179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1717</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1717</v>
       </c>
@@ -18224,7 +18231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1717</v>
       </c>
@@ -18247,7 +18254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1717</v>
       </c>
@@ -18273,7 +18280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1717</v>
       </c>
@@ -18299,7 +18306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1717</v>
       </c>
@@ -18325,7 +18332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1717</v>
       </c>
@@ -18351,7 +18358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1717</v>
       </c>
@@ -18377,7 +18384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1717</v>
       </c>
@@ -18403,7 +18410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1717</v>
       </c>
@@ -18429,7 +18436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1717</v>
       </c>
@@ -18455,7 +18462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1717</v>
       </c>
@@ -18481,7 +18488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1717</v>
       </c>
@@ -18507,7 +18514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1717</v>
       </c>
@@ -18530,7 +18537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1717</v>
       </c>
@@ -18553,7 +18560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1717</v>
       </c>
@@ -18576,7 +18583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1717</v>
       </c>
@@ -18602,7 +18609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1717</v>
       </c>
@@ -18625,7 +18632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1717</v>
       </c>
@@ -18651,7 +18658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1717</v>
       </c>
@@ -18674,7 +18681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1717</v>
       </c>
@@ -18700,7 +18707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1717</v>
       </c>
@@ -18726,7 +18733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1717</v>
       </c>
@@ -18752,7 +18759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1717</v>
       </c>
@@ -18775,7 +18782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1717</v>
       </c>
@@ -18801,7 +18808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1717</v>
       </c>
@@ -18827,7 +18834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1717</v>
       </c>
@@ -18853,7 +18860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1717</v>
       </c>
@@ -18876,7 +18883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1717</v>
       </c>
@@ -18902,7 +18909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1717</v>
       </c>
@@ -18928,7 +18935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1717</v>
       </c>
@@ -18951,7 +18958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1717</v>
       </c>
@@ -18977,7 +18984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1717</v>
       </c>
@@ -19000,7 +19007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1717</v>
       </c>
@@ -19023,7 +19030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1717</v>
       </c>
@@ -19049,7 +19056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1717</v>
       </c>
@@ -19075,7 +19082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1717</v>
       </c>
@@ -19101,7 +19108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1717</v>
       </c>
@@ -19127,7 +19134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1717</v>
       </c>
@@ -19153,7 +19160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1717</v>
       </c>
@@ -19179,7 +19186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1717</v>
       </c>
@@ -19205,7 +19212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1717</v>
       </c>
@@ -19231,7 +19238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1717</v>
       </c>
@@ -19257,7 +19264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1717</v>
       </c>
@@ -19283,7 +19290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1717</v>
       </c>
@@ -19309,7 +19316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1717</v>
       </c>
@@ -19335,7 +19342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1717</v>
       </c>
@@ -19358,7 +19365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1717</v>
       </c>
@@ -19384,7 +19391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1717</v>
       </c>
@@ -19410,7 +19417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1717</v>
       </c>
@@ -19433,7 +19440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>1717</v>
       </c>
@@ -19459,7 +19466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>1717</v>
       </c>
@@ -19485,7 +19492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1717</v>
       </c>
@@ -19511,7 +19518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1717</v>
       </c>
@@ -19537,7 +19544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1717</v>
       </c>
@@ -19560,7 +19567,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1717</v>
       </c>
@@ -19586,7 +19593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1717</v>
       </c>
@@ -19609,7 +19616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1717</v>
       </c>
@@ -19635,7 +19642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1717</v>
       </c>
@@ -19661,7 +19668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1717</v>
       </c>
@@ -19687,7 +19694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1717</v>
       </c>
@@ -19713,7 +19720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1717</v>
       </c>
@@ -19736,7 +19743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1717</v>
       </c>
@@ -19762,7 +19769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1717</v>
       </c>
@@ -19785,7 +19792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1717</v>
       </c>
@@ -19811,7 +19818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1717</v>
       </c>
@@ -19834,7 +19841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1717</v>
       </c>
@@ -19857,7 +19864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1717</v>
       </c>
@@ -19883,7 +19890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1717</v>
       </c>
@@ -19909,7 +19916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1717</v>
       </c>
@@ -19935,7 +19942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1717</v>
       </c>
@@ -19961,7 +19968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>17</v>
       </c>
@@ -19978,7 +19985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>19</v>
       </c>
@@ -19998,7 +20005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1717</v>
       </c>
@@ -20024,7 +20031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1717</v>
       </c>
@@ -20050,7 +20057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1717</v>
       </c>
@@ -20076,7 +20083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1717</v>
       </c>
@@ -20102,7 +20109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1717</v>
       </c>
@@ -20128,7 +20135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1717</v>
       </c>
@@ -20154,7 +20161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1717</v>
       </c>
@@ -20180,7 +20187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1717</v>
       </c>
@@ -20206,7 +20213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1717</v>
       </c>
@@ -20232,7 +20239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1717</v>
       </c>
@@ -20258,7 +20265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>1717</v>
       </c>
@@ -20284,7 +20291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1717</v>
       </c>
@@ -20310,7 +20317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>1717</v>
       </c>
@@ -20336,7 +20343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>1717</v>
       </c>
@@ -20362,7 +20369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1717</v>
       </c>
@@ -20388,7 +20395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1717</v>
       </c>
@@ -20414,7 +20421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1717</v>
       </c>
@@ -20440,7 +20447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1717</v>
       </c>
@@ -20466,7 +20473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1717</v>
       </c>
@@ -20492,7 +20499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>17</v>
       </c>
@@ -20509,7 +20516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1717</v>
       </c>
@@ -20532,7 +20539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1717</v>
       </c>
@@ -20555,7 +20562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1717</v>
       </c>
@@ -20578,7 +20585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1717</v>
       </c>
@@ -20601,7 +20608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1717</v>
       </c>
@@ -20624,7 +20631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>1717</v>
       </c>
@@ -20647,7 +20654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1717</v>
       </c>
@@ -20670,7 +20677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>17</v>
       </c>
@@ -20687,7 +20694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>19</v>
       </c>
@@ -20707,7 +20714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1717</v>
       </c>
@@ -20733,7 +20740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1717</v>
       </c>
@@ -20759,7 +20766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1717</v>
       </c>
@@ -20782,7 +20789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1717</v>
       </c>
@@ -20808,7 +20815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1717</v>
       </c>
@@ -20834,7 +20841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1717</v>
       </c>
@@ -20860,7 +20867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1717</v>
       </c>
@@ -20883,7 +20890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1717</v>
       </c>
@@ -20909,7 +20916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1717</v>
       </c>
@@ -20932,7 +20939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1717</v>
       </c>
@@ -20958,7 +20965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>1717</v>
       </c>
@@ -20984,7 +20991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1717</v>
       </c>
@@ -21010,7 +21017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1717</v>
       </c>
@@ -21036,7 +21043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1717</v>
       </c>
@@ -21062,7 +21069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1717</v>
       </c>
@@ -21085,7 +21092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="625" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1717</v>
       </c>
@@ -21111,7 +21118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1717</v>
       </c>
@@ -21134,7 +21141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1717</v>
       </c>
@@ -21160,7 +21167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1717</v>
       </c>
@@ -21186,7 +21193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1717</v>
       </c>
@@ -21212,7 +21219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>1717</v>
       </c>
@@ -21238,7 +21245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="631" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>1717</v>
       </c>
@@ -21264,7 +21271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1717</v>
       </c>
@@ -21290,7 +21297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1717</v>
       </c>
@@ -21316,7 +21323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1717</v>
       </c>
@@ -21339,7 +21346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1717</v>
       </c>
@@ -21362,7 +21369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="636" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1717</v>
       </c>
@@ -21388,7 +21395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1717</v>
       </c>
@@ -21411,7 +21418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1717</v>
       </c>
@@ -21437,7 +21444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="639" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1717</v>
       </c>
@@ -21463,7 +21470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1717</v>
       </c>
@@ -21489,7 +21496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1717</v>
       </c>
@@ -21515,7 +21522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1717</v>
       </c>
@@ -21541,7 +21548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1717</v>
       </c>
@@ -21567,7 +21574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1717</v>
       </c>
@@ -21593,7 +21600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1717</v>
       </c>
@@ -21619,7 +21626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="646" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1717</v>
       </c>
@@ -21645,7 +21652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1717</v>
       </c>
@@ -21671,7 +21678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1717</v>
       </c>
@@ -21697,7 +21704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="649" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1717</v>
       </c>
@@ -21720,7 +21727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1717</v>
       </c>
@@ -21746,7 +21753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1717</v>
       </c>
@@ -21772,7 +21779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1717</v>
       </c>
@@ -21798,7 +21805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="653" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1717</v>
       </c>
@@ -21824,7 +21831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1717</v>
       </c>
@@ -21850,7 +21857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>1717</v>
       </c>
@@ -21876,7 +21883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1717</v>
       </c>
@@ -21902,7 +21909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1717</v>
       </c>
@@ -21925,7 +21932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>1717</v>
       </c>
@@ -21951,7 +21958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1717</v>
       </c>
@@ -21977,7 +21984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1717</v>
       </c>
@@ -22003,7 +22010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="661" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1717</v>
       </c>
@@ -22029,7 +22036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1717</v>
       </c>
@@ -22055,7 +22062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1717</v>
       </c>
@@ -22078,7 +22085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1717</v>
       </c>
@@ -22101,7 +22108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1717</v>
       </c>
@@ -22127,7 +22134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1717</v>
       </c>
@@ -22153,7 +22160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1717</v>
       </c>
@@ -22179,7 +22186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1717</v>
       </c>
@@ -22205,7 +22212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -22222,7 +22229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>19</v>
       </c>
@@ -22242,7 +22249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1717</v>
       </c>
@@ -22265,7 +22272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1717</v>
       </c>
@@ -22288,7 +22295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1717</v>
       </c>
@@ -22311,7 +22318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1717</v>
       </c>
@@ -22334,7 +22341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1717</v>
       </c>
@@ -22357,7 +22364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1717</v>
       </c>
@@ -22380,7 +22387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1717</v>
       </c>
@@ -22403,7 +22410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>1717</v>
       </c>
@@ -22426,7 +22433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1717</v>
       </c>
@@ -22449,7 +22456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1717</v>
       </c>
@@ -22472,7 +22479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1717</v>
       </c>
@@ -22495,7 +22502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>17</v>
       </c>
@@ -22512,7 +22519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>19</v>
       </c>
@@ -22532,7 +22539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1717</v>
       </c>
@@ -22555,7 +22562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>1717</v>
       </c>
@@ -22578,7 +22585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1717</v>
       </c>
@@ -22601,7 +22608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1717</v>
       </c>
@@ -22624,7 +22631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>17</v>
       </c>
@@ -22641,7 +22648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>19</v>
       </c>
@@ -22661,7 +22668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1717</v>
       </c>
@@ -22687,7 +22694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1717</v>
       </c>
@@ -22713,7 +22720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1717</v>
       </c>
@@ -22739,7 +22746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>1717</v>
       </c>
@@ -22765,7 +22772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1717</v>
       </c>
@@ -22791,7 +22798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1717</v>
       </c>
@@ -22817,7 +22824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1717</v>
       </c>
@@ -22843,7 +22850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1717</v>
       </c>
@@ -22869,7 +22876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1717</v>
       </c>
@@ -22895,7 +22902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1717</v>
       </c>
@@ -22921,7 +22928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1717</v>
       </c>
@@ -22947,7 +22954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="701" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1717</v>
       </c>
@@ -22973,7 +22980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1717</v>
       </c>
@@ -22999,7 +23006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>1717</v>
       </c>
@@ -23025,7 +23032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1717</v>
       </c>
@@ -23051,7 +23058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1717</v>
       </c>
@@ -23077,7 +23084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1717</v>
       </c>
@@ -23103,7 +23110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1717</v>
       </c>
@@ -23126,7 +23133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1717</v>
       </c>
@@ -23152,7 +23159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1717</v>
       </c>
@@ -23178,7 +23185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1717</v>
       </c>
@@ -23204,7 +23211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1717</v>
       </c>
@@ -23230,7 +23237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1717</v>
       </c>
@@ -23256,7 +23263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="713" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1717</v>
       </c>
@@ -23282,7 +23289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1717</v>
       </c>
@@ -23308,7 +23315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1717</v>
       </c>
@@ -23334,7 +23341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1717</v>
       </c>
@@ -23360,7 +23367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1717</v>
       </c>
@@ -23386,7 +23393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="718" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>17</v>
       </c>
@@ -23403,7 +23410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="719" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>19</v>
       </c>
@@ -23423,7 +23430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1717</v>
       </c>
@@ -23449,7 +23456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1717</v>
       </c>
@@ -23475,7 +23482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1717</v>
       </c>
@@ -23501,7 +23508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1717</v>
       </c>
@@ -23527,7 +23534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1717</v>
       </c>
@@ -23553,7 +23560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="725" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1717</v>
       </c>
@@ -23579,7 +23586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1717</v>
       </c>
@@ -23605,7 +23612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1717</v>
       </c>
@@ -23631,7 +23638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1717</v>
       </c>
@@ -23657,7 +23664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1717</v>
       </c>
@@ -23683,7 +23690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1717</v>
       </c>
@@ -23709,7 +23716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1717</v>
       </c>
@@ -23735,7 +23742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1717</v>
       </c>
@@ -23761,7 +23768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1717</v>
       </c>
@@ -23787,7 +23794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1717</v>
       </c>
@@ -23813,7 +23820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1717</v>
       </c>
@@ -23839,7 +23846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1717</v>
       </c>
@@ -23865,7 +23872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1717</v>
       </c>
@@ -23891,7 +23898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="738" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1717</v>
       </c>
@@ -23917,7 +23924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1717</v>
       </c>
@@ -23943,7 +23950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1717</v>
       </c>
@@ -23969,7 +23976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1717</v>
       </c>
@@ -23995,7 +24002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1717</v>
       </c>
@@ -24021,7 +24028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1717</v>
       </c>
@@ -24047,7 +24054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1717</v>
       </c>
@@ -24073,7 +24080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="745" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>17</v>
       </c>
@@ -24090,7 +24097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>19</v>
       </c>
@@ -24110,7 +24117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1717</v>
       </c>
@@ -24136,7 +24143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1717</v>
       </c>
@@ -24162,7 +24169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="749" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1717</v>
       </c>
@@ -24188,7 +24195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1717</v>
       </c>
@@ -24214,7 +24221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1717</v>
       </c>
@@ -24240,7 +24247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1717</v>
       </c>
@@ -24266,7 +24273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1717</v>
       </c>
@@ -24292,7 +24299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1717</v>
       </c>
@@ -24318,7 +24325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1717</v>
       </c>
@@ -24344,7 +24351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1717</v>
       </c>
@@ -24370,7 +24377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="757" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1717</v>
       </c>
@@ -24396,7 +24403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1717</v>
       </c>
@@ -24422,7 +24429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="759" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1717</v>
       </c>
@@ -24448,7 +24455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="760" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1717</v>
       </c>
@@ -24474,7 +24481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="761" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1717</v>
       </c>
@@ -24500,7 +24507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="762" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1717</v>
       </c>
@@ -24526,7 +24533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1717</v>
       </c>
@@ -24552,7 +24559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1717</v>
       </c>
@@ -24578,7 +24585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="765" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1717</v>
       </c>
@@ -24604,7 +24611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1717</v>
       </c>
@@ -24630,7 +24637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1717</v>
       </c>
@@ -24656,7 +24663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1717</v>
       </c>
@@ -24682,7 +24689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1717</v>
       </c>
@@ -24708,7 +24715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>17</v>
       </c>
@@ -24725,7 +24732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>19</v>
       </c>
@@ -24745,7 +24752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1717</v>
       </c>
@@ -24768,7 +24775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1717</v>
       </c>
@@ -24791,7 +24798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1717</v>
       </c>
@@ -24814,7 +24821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="775" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1717</v>
       </c>
@@ -24837,7 +24844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="776" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1717</v>
       </c>
@@ -24860,7 +24867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1717</v>
       </c>
@@ -24883,7 +24890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1717</v>
       </c>
@@ -24906,7 +24913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="779" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1717</v>
       </c>
@@ -24929,7 +24936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>17</v>
       </c>
@@ -24946,7 +24953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>19</v>
       </c>
@@ -24966,7 +24973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1717</v>
       </c>
@@ -24989,7 +24996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1717</v>
       </c>
@@ -25012,7 +25019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="784" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1717</v>
       </c>
@@ -25035,7 +25042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1717</v>
       </c>
@@ -25058,7 +25065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1717</v>
       </c>
@@ -25081,7 +25088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1717</v>
       </c>
@@ -25104,7 +25111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1717</v>
       </c>
@@ -25127,7 +25134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="789" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1717</v>
       </c>
@@ -25150,7 +25157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="790" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>17</v>
       </c>
@@ -25167,7 +25174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>19</v>
       </c>
@@ -25187,7 +25194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1717</v>
       </c>
@@ -25213,7 +25220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1717</v>
       </c>
@@ -25239,7 +25246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1717</v>
       </c>
@@ -25262,7 +25269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="795" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1717</v>
       </c>
@@ -25288,7 +25295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="796" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1717</v>
       </c>
@@ -25314,7 +25321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1717</v>
       </c>
@@ -25340,7 +25347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1717</v>
       </c>
@@ -25366,7 +25373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="799" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1717</v>
       </c>
@@ -25392,7 +25399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="800" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1717</v>
       </c>
@@ -25415,7 +25422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1717</v>
       </c>
@@ -25441,7 +25448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="802" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1717</v>
       </c>
@@ -25464,7 +25471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1717</v>
       </c>
@@ -25490,7 +25497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="804" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1717</v>
       </c>
@@ -25516,7 +25523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="805" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1717</v>
       </c>
@@ -25542,7 +25549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="806" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1717</v>
       </c>
@@ -25565,7 +25572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="807" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1717</v>
       </c>
@@ -25588,7 +25595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="808" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1717</v>
       </c>
@@ -25614,7 +25621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="809" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1717</v>
       </c>
@@ -25640,7 +25647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="810" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1717</v>
       </c>
@@ -25666,7 +25673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1717</v>
       </c>
@@ -25692,7 +25699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="812" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1717</v>
       </c>
@@ -25715,7 +25722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="813" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1717</v>
       </c>
@@ -25741,7 +25748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="814" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1717</v>
       </c>
@@ -25767,7 +25774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="815" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1717</v>
       </c>
@@ -25793,7 +25800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="816" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1717</v>
       </c>
@@ -25819,7 +25826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="817" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1717</v>
       </c>
@@ -25845,7 +25852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="818" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1717</v>
       </c>
@@ -25868,7 +25875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>17</v>
       </c>
@@ -25885,7 +25892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="820" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>19</v>
       </c>
@@ -25905,7 +25912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="821" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1717</v>
       </c>
@@ -25931,7 +25938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1717</v>
       </c>
@@ -25957,7 +25964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="823" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1717</v>
       </c>
@@ -25980,7 +25987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1717</v>
       </c>
@@ -26003,7 +26010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1717</v>
       </c>
@@ -26026,7 +26033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1717</v>
       </c>
@@ -26052,7 +26059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="827" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1717</v>
       </c>
@@ -26075,7 +26082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1717</v>
       </c>
@@ -26101,7 +26108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1717</v>
       </c>
@@ -26124,7 +26131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1717</v>
       </c>
@@ -26150,7 +26157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1717</v>
       </c>
@@ -26176,7 +26183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="832" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1717</v>
       </c>
@@ -26202,7 +26209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="833" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1717</v>
       </c>
@@ -26228,7 +26235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="834" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1717</v>
       </c>
@@ -26254,7 +26261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="835" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1717</v>
       </c>
@@ -26280,7 +26287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="836" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1717</v>
       </c>
@@ -26303,7 +26310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="837" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1717</v>
       </c>
@@ -26329,7 +26336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="838" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1717</v>
       </c>
@@ -26355,7 +26362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="839" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1717</v>
       </c>
@@ -26381,7 +26388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="840" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1717</v>
       </c>
@@ -26404,7 +26411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1717</v>
       </c>
@@ -26430,21 +26437,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="842" spans="1:9" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
-        <v>17</v>
+        <v>1717</v>
       </c>
       <c r="B842" t="s">
-        <v>1655</v>
+        <v>1718</v>
       </c>
       <c r="C842" t="s">
-        <v>1675</v>
+        <v>1719</v>
+      </c>
+      <c r="E842" t="s">
+        <v>21</v>
+      </c>
+      <c r="G842">
+        <v>1</v>
       </c>
       <c r="H842" t="s">
         <v>1612</v>
       </c>
       <c r="I842">
         <v>26</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>17</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H843" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I843">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -26454,19 +26484,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1656</v>
       </c>
@@ -26477,7 +26507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1657</v>
       </c>
@@ -26488,7 +26518,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1657</v>
       </c>
@@ -26499,7 +26529,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="163.19999999999999" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1657</v>
       </c>
@@ -26510,7 +26540,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1658</v>
       </c>
@@ -26521,7 +26551,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1658</v>
       </c>
@@ -26532,7 +26562,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1658</v>
       </c>
@@ -26550,16 +26580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1659</v>
       </c>
@@ -26568,7 +26598,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1660</v>
       </c>
@@ -26576,7 +26606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1661</v>
       </c>
@@ -26584,7 +26614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1662</v>
       </c>
@@ -26592,7 +26622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1663</v>
       </c>
@@ -26600,7 +26630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1664</v>
       </c>
@@ -26608,12 +26638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1666</v>
       </c>
@@ -26621,7 +26651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1667</v>
       </c>
@@ -26629,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1668</v>
       </c>
@@ -26637,7 +26667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1669</v>
       </c>
@@ -26645,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1670</v>
       </c>
